--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2F158-4174-429A-A877-1F633E250474}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D475E2-D237-4524-89C7-E63ECA74E112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Training Samples</t>
   </si>
@@ -86,6 +86,30 @@
  0.144 0.162      0.278      0.306 0.430 0.466
  0.502 0.534 0.562 0.570 0.580 0.574
  0.580 0.576 0.590]</t>
+  </si>
+  <si>
+    <t>[0.092 0.117 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116
+ 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116
+ 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.116 0.118 0.119 0.119 0.119
+ 0.12  0.121 0.121 0.122 0.124]</t>
+  </si>
+  <si>
+    <t>[0.1   0.098 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134
+ 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134 0.134
+ 0.134 0.134 0.134 0.134 0.136 0.136 0.136 0.138 0.138 0.138 0.138 0.138
+ 0.138 0.138 0.142 0.144 0.148]</t>
+  </si>
+  <si>
+    <t>[0.094 0.156 0.276 0.299 0.335 0.361 0.363 0.368 0.385 0.395 0.394 0.403
+ 0.406 0.409 0.418 0.418 0.418 0.419 0.424 0.425 0.429 0.432 0.435 0.436
+ 0.438 0.44  0.439 0.437 0.437 0.437 0.436 0.435 0.433 0.436 0.435 0.435
+ 0.435 0.436 0.436 0.435 0.435]</t>
+  </si>
+  <si>
+    <t>[0.086 0.166 0.204 0.21  0.272 0.292 0.3   0.31  0.32  0.314 0.32  0.322
+ 0.32  0.322 0.334 0.334 0.332 0.332 0.334 0.336 0.338 0.338 0.336 0.338
+ 0.334 0.334 0.334 0.334 0.334 0.332 0.336 0.334 0.332 0.332 0.332 0.332
+ 0.332 0.332 0.334 0.336 0.336]</t>
   </si>
 </sst>
 </file>
@@ -114,10 +138,65 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -126,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -134,7 +213,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -420,7 +505,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -435,36 +520,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="59.25" customHeight="1">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2">
@@ -488,12 +573,12 @@
       <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>1000</v>
       </c>
       <c r="B3">
@@ -517,12 +602,12 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>1000</v>
       </c>
       <c r="B4">
@@ -546,15 +631,67 @@
       <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="H5" s="1"/>
+    <row r="5" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A5" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="H6" s="1"/>
+    <row r="6" spans="1:9" ht="63.75" customHeight="1">
+      <c r="A6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="H7" s="1"/>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D475E2-D237-4524-89C7-E63ECA74E112}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576C4F5-0F30-4CD5-A2AC-EE55CEC36EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Training Samples</t>
   </si>
@@ -110,6 +110,42 @@
  0.32  0.322 0.334 0.334 0.332 0.332 0.334 0.336 0.338 0.338 0.336 0.338
  0.334 0.334 0.334 0.334 0.334 0.332 0.336 0.334 0.332 0.332 0.332 0.332
  0.332 0.332 0.334 0.336 0.336]</t>
+  </si>
+  <si>
+    <t>[0.094 0.107 0.218 0.303 0.362 0.403 0.451 0.497 0.526 0.536 0.555 0.566
+ 0.572 0.58  0.584 0.593 0.595 0.598 0.604 0.603 0.602 0.604 0.606 0.608
+ 0.613 0.611 0.611 0.612 0.615 0.616 0.615 0.614 0.614 0.614 0.614 0.618
+ 0.621 0.621 0.623 0.623 0.623]</t>
+  </si>
+  <si>
+    <t>[0.086 0.112 0.202 0.256 0.278 0.3   0.312 0.322 0.338 0.352 0.37  0.37
+ 0.378 0.382 0.374 0.378 0.38  0.384 0.386 0.398 0.398 0.396 0.394 0.396
+ 0.4   0.402 0.406 0.406 0.412 0.418 0.422 0.424 0.422 0.422 0.422 0.422
+ 0.426 0.426 0.426 0.426 0.424]</t>
+  </si>
+  <si>
+    <t>[0.117 0.13  0.141 0.263 0.277 0.357 0.414 0.465 0.508 0.54  0.577 0.598
+ 0.611 0.632 0.642 0.645 0.658 0.663 0.667 0.672 0.672 0.672 0.681 0.685
+ 0.684 0.69  0.693 0.695 0.699 0.701 0.703 0.703 0.704 0.706 0.708 0.709
+ 0.713 0.714 0.714 0.716 0.717]</t>
+  </si>
+  <si>
+    <t>[0.098 0.16  0.146 0.24  0.198 0.252 0.294 0.314 0.352 0.376 0.398 0.418
+ 0.42  0.432 0.432 0.436 0.446 0.448 0.444 0.446 0.444 0.448 0.452 0.454
+ 0.456 0.458 0.46  0.462 0.46  0.456 0.46  0.462 0.468 0.474 0.476 0.474
+ 0.47  0.468 0.468 0.468 0.47 ]</t>
+  </si>
+  <si>
+    <t>[0.092 0.095 0.164 0.149 0.227 0.296 0.372 0.455 0.504 0.532 0.579 0.597
+ 0.61  0.63  0.646 0.658 0.669 0.688 0.701 0.708 0.711 0.719 0.729 0.737
+ 0.74  0.746 0.757 0.757 0.757 0.76  0.761 0.761 0.764 0.767 0.771 0.775
+ 0.777 0.78  0.779 0.78  0.788]</t>
+  </si>
+  <si>
+    <t>[0.1   0.088 0.204 0.108 0.172 0.25  0.296 0.336 0.376 0.392 0.424 0.436
+ 0.46  0.476 0.486 0.488 0.504 0.506 0.512 0.506 0.504 0.514 0.516 0.516
+ 0.526 0.53  0.532 0.532 0.534 0.54  0.54  0.54  0.54  0.542 0.546 0.546
+ 0.548 0.55  0.548 0.548 0.55 ]</t>
   </si>
 </sst>
 </file>
@@ -138,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,67 +197,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -502,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -520,184 +510,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="59.25" customHeight="1">
-      <c r="A2" s="4">
-        <v>1000</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2">
         <v>500</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>40</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60">
-      <c r="A3" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B3">
+      <c r="A3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60">
-      <c r="A4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B4">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
         <v>500</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>50</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2000</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="2">
         <v>500</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>40</v>
       </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B6">
+      <c r="A6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="2">
         <v>500</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="H8" s="1"/>
+    <row r="7" spans="1:9" ht="60">
+      <c r="A7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60">
+      <c r="A8" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>500</v>
+      </c>
+      <c r="C8" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8" s="2">
+        <v>300</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60">
+      <c r="A9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>500</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>400</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4576C4F5-0F30-4CD5-A2AC-EE55CEC36EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892E4EE-3828-4C91-A88E-BC2DC782295E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Training Samples</t>
   </si>
@@ -146,6 +146,42 @@
  0.46  0.476 0.486 0.488 0.504 0.506 0.512 0.506 0.504 0.514 0.516 0.516
  0.526 0.53  0.532 0.532 0.534 0.54  0.54  0.54  0.54  0.542 0.546 0.546
  0.548 0.55  0.548 0.548 0.55 ]</t>
+  </si>
+  <si>
+    <t>[0.092 0.094 0.095 0.154 0.251 0.395 0.508 0.581 0.621 0.648 0.654 0.662
+ 0.68  0.688 0.693 0.698 0.701 0.714 0.718 0.731 0.74  0.751 0.758 0.771
+ 0.78  0.792 0.8   0.806 0.808 0.81  0.813 0.814 0.82  0.825 0.83  0.831
+ 0.832 0.837 0.838 0.836 0.841]</t>
+  </si>
+  <si>
+    <t>[0.1   0.1   0.092 0.138 0.21  0.316 0.366 0.4   0.424 0.42  0.432 0.436
+ 0.442 0.444 0.45  0.45  0.462 0.458 0.47  0.462 0.462 0.458 0.456 0.46
+ 0.468 0.468 0.466 0.46  0.464 0.462 0.462 0.464 0.468 0.476 0.474 0.478
+ 0.474 0.472 0.478 0.478 0.476]</t>
+  </si>
+  <si>
+    <t>[0.092 0.118 0.089 0.101 0.187 0.293 0.406 0.519 0.603 0.644 0.684 0.719
+ 0.727 0.747 0.759 0.769 0.778 0.785 0.799 0.803 0.806 0.813 0.817 0.819
+ 0.82  0.823 0.824 0.829 0.829 0.83  0.83  0.834 0.834 0.834 0.834 0.834
+ 0.834 0.832 0.835 0.834 0.835]</t>
+  </si>
+  <si>
+    <t>[0.1   0.14  0.108 0.112 0.168 0.248 0.306 0.416 0.45  0.46  0.464 0.482
+ 0.492 0.498 0.494 0.502 0.494 0.486 0.49  0.488 0.492 0.494 0.492 0.496
+ 0.498 0.498 0.498 0.492 0.498 0.496 0.492 0.498 0.498 0.498 0.498 0.498
+ 0.502 0.498 0.498 0.5   0.502]</t>
+  </si>
+  <si>
+    <t>[0.092 0.117 0.141 0.141 0.161 0.206 0.3   0.404 0.564 0.636 0.684 0.719
+ 0.734 0.746 0.761 0.772 0.783 0.793 0.802 0.811 0.822 0.83  0.835 0.837
+ 0.844 0.852 0.856 0.859 0.86  0.862 0.863 0.863 0.864 0.864 0.864 0.864
+ 0.865 0.865 0.865 0.866 0.866]</t>
+  </si>
+  <si>
+    <t>[0.1   0.134 0.142 0.124 0.112 0.142 0.222 0.338 0.42  0.47  0.494 0.52
+ 0.522 0.532 0.53  0.526 0.516 0.51  0.512 0.514 0.524 0.528 0.528 0.528
+ 0.53  0.534 0.538 0.54  0.54  0.546 0.542 0.542 0.538 0.534 0.538 0.532
+ 0.53  0.528 0.526 0.526 0.528]</t>
   </si>
 </sst>
 </file>
@@ -201,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -212,6 +248,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -492,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -538,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="59.25" customHeight="1">
+    <row r="2" spans="1:9" ht="57" customHeight="1">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -546,28 +585,28 @@
         <v>500</v>
       </c>
       <c r="C2" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>50</v>
       </c>
       <c r="E2" s="2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60.75" customHeight="1">
       <c r="A3" s="2">
         <v>1000</v>
       </c>
@@ -584,19 +623,19 @@
         <v>2000</v>
       </c>
       <c r="F3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="58.5" customHeight="1">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -604,13 +643,13 @@
         <v>500</v>
       </c>
       <c r="C4" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="2">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
@@ -619,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="63.75" customHeight="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="59.25" customHeight="1">
       <c r="A5" s="2">
         <v>1000</v>
       </c>
@@ -636,10 +675,10 @@
         <v>40</v>
       </c>
       <c r="D5" s="2">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -648,14 +687,14 @@
         <v>9</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A6" s="5">
         <v>1000</v>
       </c>
       <c r="B6" s="2">
@@ -668,7 +707,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -677,13 +716,13 @@
         <v>9</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="59.25" customHeight="1">
       <c r="A7" s="5">
         <v>1000</v>
       </c>
@@ -697,7 +736,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="2">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -706,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60">
@@ -726,7 +765,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F8" s="2">
         <v>2</v>
@@ -734,11 +773,11 @@
       <c r="G8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>22</v>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60">
@@ -755,7 +794,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="2">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -763,11 +802,127 @@
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>25</v>
+      <c r="H9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="A10" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <v>500</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="59.25" customHeight="1">
+      <c r="A11" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="5">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12" s="2">
+        <v>700</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60">
+      <c r="A13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C892E4EE-3828-4C91-A88E-BC2DC782295E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C7EE1-EC88-46AB-9FE3-9264165CB821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Training Samples</t>
   </si>
@@ -182,6 +182,18 @@
  0.522 0.532 0.53  0.526 0.516 0.51  0.512 0.514 0.524 0.528 0.528 0.528
  0.53  0.534 0.538 0.54  0.54  0.546 0.542 0.542 0.538 0.534 0.538 0.532
  0.53  0.528 0.526 0.526 0.528]</t>
+  </si>
+  <si>
+    <t>[0.087 0.116 0.116 0.116 0.135 0.154 0.157 0.238 0.472 0.594 0.658 0.7
+ 0.735 0.762 0.793 0.813 0.831 0.842 0.853 0.867 0.874 0.884 0.894 0.899
+ 0.905 0.912 0.914 0.916 0.92  0.921 0.923 0.926 0.927 0.929 0.932 0.932
+ 0.933 0.934 0.934 0.934 0.935]</t>
+  </si>
+  <si>
+    <t>[0.08  0.134 0.134 0.136 0.15  0.192 0.194 0.182 0.362 0.448 0.506 0.552
+ 0.574 0.574 0.57  0.574 0.572 0.564 0.58  0.584 0.58  0.578 0.576 0.59
+ 0.592 0.59  0.596 0.592 0.586 0.584 0.588 0.58  0.58  0.582 0.582 0.586
+ 0.584 0.58  0.578 0.578 0.58 ]</t>
   </si>
 </sst>
 </file>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -925,6 +937,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="2">
+        <v>500</v>
+      </c>
+      <c r="C14" s="2">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C7EE1-EC88-46AB-9FE3-9264165CB821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B096C7B1-C3E8-42E7-9761-05246F5AB11E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Training Samples</t>
   </si>
@@ -543,21 +543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.42578125" customWidth="1"/>
-    <col min="9" max="9" width="62.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.44140625" customWidth="1"/>
+    <col min="9" max="9" width="62.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="60">
+    <row r="8" spans="1:9" ht="57.6">
       <c r="A8" s="5">
         <v>1000</v>
       </c>
@@ -792,7 +792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="60">
+    <row r="9" spans="1:9" ht="57.6">
       <c r="A9" s="5">
         <v>1000</v>
       </c>
@@ -806,7 +806,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="2">
         <v>2</v>
@@ -815,13 +815,13 @@
         <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="59.25" customHeight="1">
       <c r="A10" s="5">
         <v>1000</v>
       </c>
@@ -835,7 +835,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="2">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F10" s="2">
         <v>2</v>
@@ -844,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="59.25" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57.6">
       <c r="A11" s="5">
         <v>1000</v>
       </c>
@@ -864,7 +864,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="2">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
@@ -873,14 +873,14 @@
         <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60">
-      <c r="A12" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6">
+      <c r="A12" s="2">
         <v>1000</v>
       </c>
       <c r="B12" s="2">
@@ -893,7 +893,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="2">
         <v>2</v>
@@ -901,14 +901,14 @@
       <c r="G12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="60">
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="57.6">
       <c r="A13" s="2">
         <v>1000</v>
       </c>
@@ -922,7 +922,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="F13" s="2">
         <v>2</v>
@@ -930,39 +930,10 @@
       <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="60">
-      <c r="A14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="2">
-        <v>500</v>
-      </c>
-      <c r="C14" s="2">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1500</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3C7EE1-EC88-46AB-9FE3-9264165CB821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0214B83D-EA37-43DB-A138-34109A4533D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Training Samples</t>
   </si>
@@ -194,6 +194,17 @@
  0.574 0.574 0.57  0.574 0.572 0.564 0.58  0.584 0.58  0.578 0.576 0.59
  0.592 0.59  0.596 0.592 0.586 0.584 0.588 0.58  0.58  0.582 0.582 0.586
  0.584 0.58  0.578 0.578 0.58 ]</t>
+  </si>
+  <si>
+    <t>20 (14)</t>
+  </si>
+  <si>
+    <t>[0.09  0.609 0.669 0.699 0.713 0.721 0.726 0.73  0.734 0.736 0.738 0.74
+ 0.742 0.743 0.745]</t>
+  </si>
+  <si>
+    <t>[0.089 0.604 0.663 0.698 0.712 0.722 0.73  0.734 0.737 0.741 0.744 0.746
+ 0.747 0.748 0.751]</t>
   </si>
 </sst>
 </file>
@@ -543,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -966,6 +977,35 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="5">
+        <v>60000</v>
+      </c>
+      <c r="B15" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5">
+        <v>600</v>
+      </c>
+      <c r="E15" s="5">
+        <v>500</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/models/mnist_accuracies.xlsx
+++ b/models/mnist_accuracies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6AD9C-B257-49CD-AAFE-C28AD5AE62D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C1F92-6CEF-432F-BC1D-7505F2215365}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Training Samples</t>
   </si>
@@ -213,6 +213,15 @@
   <si>
     <t>[0.096 0.371 0.391 0.399 0.403 0.406 0.407 0.409 0.411 0.412 0.415 0.417
  0.419 0.42  0.423 0.423 0.425 0.426 0.427 0.429 0.43 ]</t>
+  </si>
+  <si>
+    <t>20 (1) -&gt; Abbruch, weil zu groß</t>
+  </si>
+  <si>
+    <t>[0.09  0.609]</t>
+  </si>
+  <si>
+    <t>[0.089 0.622]</t>
   </si>
 </sst>
 </file>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1043,6 +1052,35 @@
         <v>38</v>
       </c>
     </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>60000</v>
+      </c>
+      <c r="B17" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5">
+        <v>600</v>
+      </c>
+      <c r="E17" s="5">
+        <v>750</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
